--- a/biology/Zoologie/Graphium/Graphium.xlsx
+++ b/biology/Zoologie/Graphium/Graphium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Graphium regroupe des insectes lépidoptères de la famille des Papilionidae et de la sous-famille des Papilioninae.
 </t>
@@ -511,24 +523,60 @@
           <t>Dénomiation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le genre a été décrit par le naturaliste italien Giovanni Antonio Scopoli en 1777[1].
-L'espèce type pour le genre est Papilio sarpedon (Linné, 1758), soit aujourd'hui Graphium sarpedon.
-Synonymie
-Zelima (Fabricius, 1807)[2]
-Arisbe (Hübner, 1819)[3]
-Idaides(Hübner, 1819)[4]
-Zetides (Hübner, 1819)[4]
-Ailus (Billberg, 1820)[5]
-Chlorisses (Swainson, 1832)[6]
-Semicudati Koch, 1860[7]
-Pathysa (Reakirt, 1865)[8]
-Dalchina (Moore, 1881) [9]
-Paranticopsis (Wood-Mason &amp; de Nicéville, 1887)[10]
-Pazala (Moore, 1888)[11]
-Deoris( Moore, 1903) [12]
-Klinzigia (Niculescu, 1977)[13]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le genre a été décrit par le naturaliste italien Giovanni Antonio Scopoli en 1777.
+L'espèce type pour le genre est Papilio sarpedon (Linné, 1758), soit aujourd'hui Graphium sarpedon.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Graphium</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Graphium</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomiation</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Zelima (Fabricius, 1807)
+Arisbe (Hübner, 1819)
+Idaides(Hübner, 1819)
+Zetides (Hübner, 1819)
+Ailus (Billberg, 1820)
+Chlorisses (Swainson, 1832)
+Semicudati Koch, 1860
+Pathysa (Reakirt, 1865)
+Dalchina (Moore, 1881) 
+Paranticopsis (Wood-Mason &amp; de Nicéville, 1887)
+Pazala (Moore, 1888)
+Deoris( Moore, 1903) 
+Klinzigia (Niculescu, 1977)
 Klinzigiana (Niculescu, 1989)
 Eurypyleana (Niculescu, 1989)
 Macfarlaneana (Niculescu, 1989)
@@ -537,36 +585,72 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Graphium</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Graphium</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le genre est découpé en cinq sous-genres.
-Liste des espèces par sous-genre et groupe
-Graphium (Arisbe)
-Groupe de l'adamastor
+Liste des espèces par sous-genre et groupe</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Graphium</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Graphium</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Graphium (Arisbe)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Groupe de l'adamastor
 Graphium abri (C.R. Smith &amp; Vane-Wright, 2001)
 Graphium adamastor (Boisduval, 1836).
 Graphium agamedes (Westwood, 1842).
@@ -614,9 +698,43 @@
 Graphium junodi (Trimen, 1893).
 Graphium kirbyi (Hewitson, 1872).
 Graphium polistratus (Grose-Smith, 1889).
-Graphium porthaon (Hewitson, 1865).
-Graphium (Graphium) (Scopoli, 1777)
-Graphium agamemnon (Linnaeus, 1758).
+Graphium porthaon (Hewitson, 1865).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Graphium</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Graphium</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Graphium (Graphium) (Scopoli, 1777)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Graphium agamemnon (Linnaeus, 1758).
 Graphium arycles (Boisduval, 1836).
 Graphium bathycles (Zinken, 1831).
 Graphium batjanensis (K. Okano, 1984).
@@ -644,9 +762,43 @@
 Graphium sarpedon (Linnaeus, 1758).
 Graphium stresemanni (Rothschild, 1916).
 Graphium wallacei (Hewitson, 1858).
-Graphium weiskei (Ribbe, 1900).
-Graphium (Paranticopsis) (Wood-Mason &amp; de Niceville, 1887)
-Graphium delessertii (Guérin-Méneville, 1839).
+Graphium weiskei (Ribbe, 1900).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Graphium</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Graphium</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Graphium (Paranticopsis) (Wood-Mason &amp; de Niceville, 1887)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Graphium delessertii (Guérin-Méneville, 1839).
 Graphium deucalion (Boisduval, 1836).
 Graphium encelades (Boisduval, 1836). 
 Graphium idaeoides (Hewitson, 1853).
@@ -657,9 +809,43 @@
 Graphium ramaceus (Westwood, 1872).
 Graphium stratocles (C. &amp; R. Felder, 1861).
 Graphium thule (Wallace, 1865).
-Graphium xenocles (Doubleday, 1842).
-Graphium (Pathysa) Reakirt, 1865
-Graphium agetes (Westwood, 1843).
+Graphium xenocles (Doubleday, 1842).</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Graphium</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Graphium</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Graphium (Pathysa) Reakirt, 1865</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Graphium agetes (Westwood, 1843).
 Graphium androcles (Boisduval, 1836).
 Graphium antiphates (Cramer, 1775).
 Graphium aristeus (Stoll, 1780).
@@ -670,9 +856,43 @@
 Graphium euphratoides (Eimer, 1889).
 Graphium nomius (Esper, 1785).
 Graphium rhesus (Boisduval, 1836).
-Graphium stratiotes (Grose-Smith, 1887).
-Graphium (Pazala) (Moore, 1888)
-Graphium alebion (Gray, 1853).
+Graphium stratiotes (Grose-Smith, 1887).</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Graphium</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Graphium</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Graphium (Pazala) (Moore, 1888)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Graphium alebion (Gray, 1853).
 Graphium eurous (Leech, 1893).
 Graphium incertus (Bang-Haas).
 Graphium sichuanica (Koiwaya, 1993).
@@ -681,31 +901,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>Graphium</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Graphium</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Tous les papillons du genre Graphium ont une aire de répartition suivant les sous-groupes en Afrique,en Asie ou dans les iles du Pacifique, jusqu'en Australie.
 </t>
